--- a/data/123-madao_service/service-base_structure.xlsx
+++ b/data/123-madao_service/service-base_structure.xlsx
@@ -20,7 +20,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1671" uniqueCount="171">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1686" uniqueCount="171">
   <si>
     <t>类名</t>
   </si>
@@ -6165,7 +6165,7 @@
 
 <file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
-  <dimension ref="A1:F13"/>
+  <dimension ref="A1:F16"/>
   <sheetViews>
     <sheetView workbookViewId="0"/>
   </sheetViews>
@@ -6210,13 +6210,13 @@
         <v>148</v>
       </c>
       <c r="B3" t="s">
-        <v>149</v>
+        <v>111</v>
       </c>
       <c r="C3" t="s">
         <v>108</v>
       </c>
       <c r="D3" t="s">
-        <v>113</v>
+        <v>111</v>
       </c>
       <c r="E3" t="s">
         <v>164</v>
@@ -6227,13 +6227,13 @@
         <v>148</v>
       </c>
       <c r="B4" t="s">
-        <v>150</v>
+        <v>149</v>
       </c>
       <c r="C4" t="s">
         <v>108</v>
       </c>
       <c r="D4" t="s">
-        <v>50</v>
+        <v>113</v>
       </c>
       <c r="E4" t="s">
         <v>164</v>
@@ -6241,16 +6241,16 @@
     </row>
     <row r="5">
       <c r="A5" t="s">
-        <v>151</v>
+        <v>148</v>
       </c>
       <c r="B5" t="s">
-        <v>152</v>
+        <v>150</v>
       </c>
       <c r="C5" t="s">
-        <v>101</v>
+        <v>108</v>
       </c>
       <c r="D5" t="s">
-        <v>102</v>
+        <v>50</v>
       </c>
       <c r="E5" t="s">
         <v>164</v>
@@ -6261,7 +6261,7 @@
         <v>151</v>
       </c>
       <c r="B6" t="s">
-        <v>153</v>
+        <v>152</v>
       </c>
       <c r="C6" t="s">
         <v>101</v>
@@ -6278,13 +6278,13 @@
         <v>151</v>
       </c>
       <c r="B7" t="s">
-        <v>103</v>
+        <v>153</v>
       </c>
       <c r="C7" t="s">
         <v>101</v>
       </c>
       <c r="D7" t="s">
-        <v>103</v>
+        <v>102</v>
       </c>
       <c r="E7" t="s">
         <v>164</v>
@@ -6295,13 +6295,13 @@
         <v>151</v>
       </c>
       <c r="B8" t="s">
-        <v>154</v>
+        <v>103</v>
       </c>
       <c r="C8" t="s">
         <v>101</v>
       </c>
       <c r="D8" t="s">
-        <v>50</v>
+        <v>103</v>
       </c>
       <c r="E8" t="s">
         <v>164</v>
@@ -6312,13 +6312,13 @@
         <v>151</v>
       </c>
       <c r="B9" t="s">
-        <v>155</v>
+        <v>154</v>
       </c>
       <c r="C9" t="s">
         <v>101</v>
       </c>
       <c r="D9" t="s">
-        <v>105</v>
+        <v>50</v>
       </c>
       <c r="E9" t="s">
         <v>164</v>
@@ -6329,13 +6329,13 @@
         <v>151</v>
       </c>
       <c r="B10" t="s">
-        <v>92</v>
+        <v>155</v>
       </c>
       <c r="C10" t="s">
         <v>101</v>
       </c>
       <c r="D10" t="s">
-        <v>104</v>
+        <v>105</v>
       </c>
       <c r="E10" t="s">
         <v>164</v>
@@ -6343,16 +6343,16 @@
     </row>
     <row r="11">
       <c r="A11" t="s">
-        <v>157</v>
+        <v>151</v>
       </c>
       <c r="B11" t="s">
-        <v>158</v>
+        <v>92</v>
       </c>
       <c r="C11" t="s">
-        <v>87</v>
+        <v>101</v>
       </c>
       <c r="D11" t="s">
-        <v>92</v>
+        <v>104</v>
       </c>
       <c r="E11" t="s">
         <v>164</v>
@@ -6360,16 +6360,16 @@
     </row>
     <row r="12">
       <c r="A12" t="s">
-        <v>157</v>
+        <v>151</v>
       </c>
       <c r="B12" t="s">
-        <v>95</v>
+        <v>156</v>
       </c>
       <c r="C12" t="s">
-        <v>87</v>
+        <v>101</v>
       </c>
       <c r="D12" t="s">
-        <v>95</v>
+        <v>106</v>
       </c>
       <c r="E12" t="s">
         <v>164</v>
@@ -6380,15 +6380,66 @@
         <v>157</v>
       </c>
       <c r="B13" t="s">
-        <v>150</v>
+        <v>158</v>
       </c>
       <c r="C13" t="s">
         <v>87</v>
       </c>
       <c r="D13" t="s">
+        <v>92</v>
+      </c>
+      <c r="E13" t="s">
+        <v>164</v>
+      </c>
+    </row>
+    <row r="14">
+      <c r="A14" t="s">
+        <v>157</v>
+      </c>
+      <c r="B14" t="s">
+        <v>93</v>
+      </c>
+      <c r="C14" t="s">
+        <v>87</v>
+      </c>
+      <c r="D14" t="s">
+        <v>93</v>
+      </c>
+      <c r="E14" t="s">
+        <v>164</v>
+      </c>
+    </row>
+    <row r="15">
+      <c r="A15" t="s">
+        <v>157</v>
+      </c>
+      <c r="B15" t="s">
+        <v>95</v>
+      </c>
+      <c r="C15" t="s">
+        <v>87</v>
+      </c>
+      <c r="D15" t="s">
+        <v>95</v>
+      </c>
+      <c r="E15" t="s">
+        <v>164</v>
+      </c>
+    </row>
+    <row r="16">
+      <c r="A16" t="s">
+        <v>157</v>
+      </c>
+      <c r="B16" t="s">
+        <v>150</v>
+      </c>
+      <c r="C16" t="s">
+        <v>87</v>
+      </c>
+      <c r="D16" t="s">
         <v>50</v>
       </c>
-      <c r="E13" t="s">
+      <c r="E16" t="s">
         <v>164</v>
       </c>
     </row>
